--- a/www/IndicatorsPerCountry/Bulgaria_TotalNumberofGoats_TerritorialRef_1946_2012_CCode_100.xlsx
+++ b/www/IndicatorsPerCountry/Bulgaria_TotalNumberofGoats_TerritorialRef_1946_2012_CCode_100.xlsx
@@ -192,13 +192,13 @@
     <t>Klein Goldewijk, Kees (2015). Total Number of Goats. http://hdl.handle.net/10622/NKAQPL, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_NKAQPL.xml</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_NKAQPL.xml</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_NKAQPL.ris</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_NKAQPL.ris</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_NKAQPL.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_NKAQPL.bib</t>
   </si>
 </sst>
 </file>
